--- a/KeywordDrivenFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/KeywordDrivenFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -13,7 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Settings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Action_Keywords">Settings!$D$2:$D$12</definedName>
+    <definedName name="Home_Page">Settings!$B$2:$B$12</definedName>
+    <definedName name="Login_Page">Settings!$C$2:$C$12</definedName>
+    <definedName name="Page_Name">Settings!$A$2:$A$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>TS_ID</t>
   </si>
@@ -86,15 +94,9 @@
     <t>Enter The UserName in the Username field</t>
   </si>
   <si>
-    <t>input_Username</t>
-  </si>
-  <si>
     <t>Enter The Password in the Password field</t>
   </si>
   <si>
-    <t>input_Password</t>
-  </si>
-  <si>
     <t>Click on Login button</t>
   </si>
   <si>
@@ -132,13 +134,70 @@
   </si>
   <si>
     <t>click</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Login into the Online Store Application</t>
+  </si>
+  <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>anonymous.vn1985@gmail.com</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>11100001</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Name </t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>Login_Page Objects</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
+    <t>Page Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +207,16 @@
     </font>
     <font>
       <b/>
-      <sz val="12.5"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,18 +265,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,22 +581,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -514,13 +609,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,11 +635,18 @@
         <v>14</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -546,11 +657,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,13 +677,20 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,13 +701,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,16 +724,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,16 +750,23 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,14 +774,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,16 +794,23 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,12 +818,426 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
+      <formula1>Page_Name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19">
+      <formula1>Action_Keywords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">
+      <formula1>INDIRECT(D2)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeywordDrivenFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/KeywordDrivenFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KeywordDrivenFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/KeywordDrivenFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\git\KeywordDrivenFramework\src\main\java\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView activeTab="1" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
-    <sheet name="Settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Steps" r:id="rId1" sheetId="1"/>
+    <sheet name="Test Cases" r:id="rId2" sheetId="2"/>
+    <sheet name="Settings" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="Action_Keywords">Settings!$D$2:$D$12</definedName>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>TS_ID</t>
   </si>
@@ -191,12 +191,19 @@
   </si>
   <si>
     <t>Page Name</t>
+  </si>
+  <si>
+    <t>11100002</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,33 +287,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +330,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -361,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,21 +497,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -521,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -573,32 +580,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.5" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -942,7 +949,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>44</v>
@@ -1038,41 +1045,41 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D19" type="list">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F19" type="list">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E19" type="list">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="G5"/>
+    <hyperlink r:id="rId2" ref="G14"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>44</v>
@@ -1115,13 +1122,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1130,12 +1137,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1240,7 +1247,7 @@
       <c r="D12" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>